--- a/data/trans_orig/P0802-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD10DF0-143E-45B3-B3FB-FE00FD981948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{859B3B48-1016-4C07-864B-0608DCA4A724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{77AEC260-733D-46C6-B9CE-1D2E82C217BB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{31496D64-3D52-4DAF-9E69-CB51127FDFAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="871">
   <si>
     <t>Población según limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -800,7 +800,85 @@
     <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>85,14%</t>
@@ -854,9 +932,6 @@
     <t>5,09%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
     <t>8,57%</t>
   </si>
   <si>
@@ -902,9 +977,6 @@
     <t>16,19%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
     <t>20,64%</t>
   </si>
   <si>
@@ -920,9 +992,6 @@
     <t>3,32%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
     <t>7,03%</t>
   </si>
   <si>
@@ -938,1648 +1007,1651 @@
     <t>8,44%</t>
   </si>
   <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
   </si>
   <si>
     <t>79,13%</t>
   </si>
   <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>8,3%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
 </sst>
 </file>
@@ -2991,7 +3063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D186202-55E3-4A98-8580-EC21075AA0B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB9F530-A617-4FD4-BF5A-E2EB44E3493F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4760,7 +4832,7 @@
         <v>2747</v>
       </c>
       <c r="D36" s="7">
-        <v>2820228</v>
+        <v>2820227</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>229</v>
@@ -4775,7 +4847,7 @@
         <v>2538</v>
       </c>
       <c r="I36" s="7">
-        <v>2593600</v>
+        <v>2593599</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>232</v>
@@ -4790,7 +4862,7 @@
         <v>5285</v>
       </c>
       <c r="N36" s="7">
-        <v>5413827</v>
+        <v>5413828</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>76</v>
@@ -4913,7 +4985,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -4928,7 +5000,7 @@
         <v>3297</v>
       </c>
       <c r="I39" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -4943,7 +5015,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -4981,7 +5053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0998D9-CBEB-4D68-AB4D-819333A204AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5367A6E9-1218-4A0F-B382-3BB5574A3FE3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5099,43 +5171,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="D4" s="7">
+        <v>248079</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>253</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="I4" s="7">
+        <v>210255</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>420</v>
+      </c>
+      <c r="N4" s="7">
+        <v>458334</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,43 +5222,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D5" s="7">
+        <v>30548</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="I5" s="7">
+        <v>38026</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="N5" s="7">
+        <v>68574</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,43 +5273,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16111</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="I6" s="7">
+        <v>38964</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="N6" s="7">
+        <v>55076</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,43 +5324,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D7" s="7">
+        <v>294738</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I7" s="7">
+        <v>287245</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N7" s="7">
+        <v>581983</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5383,13 @@
         <v>430427</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="H8" s="7">
         <v>358</v>
@@ -5302,13 +5398,13 @@
         <v>389574</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="M8" s="7">
         <v>767</v>
@@ -5317,13 +5413,13 @@
         <v>820001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5434,13 @@
         <v>38025</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="H9" s="7">
         <v>69</v>
@@ -5353,13 +5449,13 @@
         <v>74731</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="M9" s="7">
         <v>103</v>
@@ -5389,13 +5485,13 @@
         <v>37076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -5407,10 +5503,10 @@
         <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -5419,10 +5515,10 @@
         <v>96536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>21</v>
@@ -5493,13 +5589,13 @@
         <v>272233</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>210</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="H12" s="7">
         <v>244</v>
@@ -5508,13 +5604,13 @@
         <v>261844</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="M12" s="7">
         <v>515</v>
@@ -5523,13 +5619,13 @@
         <v>534077</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5640,13 @@
         <v>33275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -5559,13 +5655,13 @@
         <v>55196</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -5577,10 +5673,10 @@
         <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5691,13 @@
         <v>18537</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -5610,13 +5706,13 @@
         <v>23980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -5625,13 +5721,13 @@
         <v>42518</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,49 +5789,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>527</v>
+        <v>291</v>
       </c>
       <c r="D16" s="7">
-        <v>563230</v>
+        <v>315151</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="H16" s="7">
-        <v>438</v>
+        <v>254</v>
       </c>
       <c r="I16" s="7">
-        <v>477882</v>
+        <v>267627</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
-        <v>965</v>
+        <v>545</v>
       </c>
       <c r="N16" s="7">
-        <v>1041112</v>
+        <v>582778</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,49 +5840,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7">
-        <v>62329</v>
+        <v>31781</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="H17" s="7">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I17" s="7">
-        <v>92321</v>
+        <v>54295</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="M17" s="7">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="N17" s="7">
-        <v>154650</v>
+        <v>86077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,49 +5891,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>43161</v>
+        <v>27050</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>315</v>
+        <v>228</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="H18" s="7">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="I18" s="7">
-        <v>105992</v>
+        <v>67028</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="M18" s="7">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="N18" s="7">
-        <v>149154</v>
+        <v>94078</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,10 +5942,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5861,10 +5957,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5876,10 +5972,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N19" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5905,13 +6001,13 @@
         <v>175746</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="H20" s="7">
         <v>148</v>
@@ -5920,13 +6016,13 @@
         <v>152240</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="M20" s="7">
         <v>311</v>
@@ -5935,13 +6031,13 @@
         <v>327986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,10 +6055,10 @@
         <v>243</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -5971,13 +6067,13 @@
         <v>42628</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="M21" s="7">
         <v>64</v>
@@ -5986,13 +6082,13 @@
         <v>69676</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,13 +6103,13 @@
         <v>9823</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -6022,13 +6118,13 @@
         <v>24724</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -6037,13 +6133,13 @@
         <v>34547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6207,13 @@
         <v>219404</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="H24" s="7">
         <v>192</v>
@@ -6129,10 +6225,10 @@
         <v>46</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="M24" s="7">
         <v>400</v>
@@ -6141,13 +6237,13 @@
         <v>419606</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>355</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6258,13 @@
         <v>35830</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -6177,13 +6273,13 @@
         <v>55729</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -6192,13 +6288,13 @@
         <v>91558</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,13 +6309,13 @@
         <v>18747</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -6228,13 +6324,13 @@
         <v>23013</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -6243,13 +6339,13 @@
         <v>41760</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,13 +6413,13 @@
         <v>575503</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="H28" s="7">
         <v>478</v>
@@ -6332,13 +6428,13 @@
         <v>518747</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="M28" s="7">
         <v>1016</v>
@@ -6350,10 +6446,10 @@
         <v>103</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,13 +6464,13 @@
         <v>63172</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H29" s="7">
         <v>111</v>
@@ -6383,13 +6479,13 @@
         <v>119802</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="M29" s="7">
         <v>170</v>
@@ -6401,10 +6497,10 @@
         <v>108</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,13 +6515,13 @@
         <v>21222</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="H30" s="7">
         <v>47</v>
@@ -6434,13 +6530,13 @@
         <v>55303</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -6449,13 +6545,13 @@
         <v>76525</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6619,13 @@
         <v>653551</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="H32" s="7">
         <v>592</v>
@@ -6538,13 +6634,13 @@
         <v>641017</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="M32" s="7">
         <v>1198</v>
@@ -6553,13 +6649,13 @@
         <v>1294569</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,13 +6670,13 @@
         <v>99573</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>408</v>
+        <v>345</v>
       </c>
       <c r="H33" s="7">
         <v>115</v>
@@ -6589,13 +6685,13 @@
         <v>127989</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="M33" s="7">
         <v>203</v>
@@ -6604,13 +6700,13 @@
         <v>227562</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6721,13 @@
         <v>24944</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>415</v>
+        <v>272</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="H34" s="7">
         <v>50</v>
@@ -6640,13 +6736,13 @@
         <v>54846</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="M34" s="7">
         <v>72</v>
@@ -6655,13 +6751,13 @@
         <v>79790</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6825,13 @@
         <v>2890095</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="H36" s="7">
         <v>2450</v>
@@ -6744,13 +6840,13 @@
         <v>2641507</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="M36" s="7">
         <v>5172</v>
@@ -6759,13 +6855,13 @@
         <v>5531602</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6876,13 @@
         <v>359252</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="H37" s="7">
         <v>527</v>
@@ -6795,13 +6891,13 @@
         <v>568396</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="M37" s="7">
         <v>857</v>
@@ -6810,13 +6906,13 @@
         <v>927648</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,13 +6927,13 @@
         <v>173511</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="H38" s="7">
         <v>320</v>
@@ -6846,13 +6942,13 @@
         <v>347319</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="M38" s="7">
         <v>474</v>
@@ -6861,13 +6957,13 @@
         <v>520830</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,7 +7043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2996273B-ECEE-4F6E-8E48-2751A5DE1741}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1B3DBF-A040-4575-9A0F-EBAD3F143021}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6964,7 +7060,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7071,13 +7167,13 @@
         <v>241026</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="H4" s="7">
         <v>207</v>
@@ -7086,13 +7182,13 @@
         <v>210922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="M4" s="7">
         <v>424</v>
@@ -7101,13 +7197,13 @@
         <v>451948</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7218,13 @@
         <v>31653</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -7137,13 +7233,13 @@
         <v>30756</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -7152,13 +7248,13 @@
         <v>62409</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7269,13 @@
         <v>21082</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="H6" s="7">
         <v>42</v>
@@ -7188,13 +7284,13 @@
         <v>47025</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="M6" s="7">
         <v>63</v>
@@ -7203,13 +7299,13 @@
         <v>68107</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7373,13 @@
         <v>443180</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="H8" s="7">
         <v>388</v>
@@ -7292,13 +7388,13 @@
         <v>410445</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="M8" s="7">
         <v>805</v>
@@ -7307,13 +7403,13 @@
         <v>853626</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7424,13 @@
         <v>38995</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -7343,13 +7439,13 @@
         <v>68382</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="M9" s="7">
         <v>97</v>
@@ -7358,13 +7454,13 @@
         <v>107377</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>489</v>
+        <v>331</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7475,13 @@
         <v>20400</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -7394,13 +7490,13 @@
         <v>44257</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -7412,10 +7508,10 @@
         <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7579,13 @@
         <v>277193</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="H12" s="7">
         <v>277</v>
@@ -7498,13 +7594,13 @@
         <v>272636</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="M12" s="7">
         <v>564</v>
@@ -7513,13 +7609,13 @@
         <v>549828</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7630,13 @@
         <v>34258</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -7552,10 +7648,10 @@
         <v>108</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>80</v>
@@ -7564,13 +7660,13 @@
         <v>79733</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,13 +7681,13 @@
         <v>7114</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -7600,13 +7696,13 @@
         <v>18199</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -7615,13 +7711,13 @@
         <v>25313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7785,13 @@
         <v>313886</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="H16" s="7">
         <v>271</v>
@@ -7704,13 +7800,13 @@
         <v>284569</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="M16" s="7">
         <v>569</v>
@@ -7719,13 +7815,13 @@
         <v>598455</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,13 +7836,13 @@
         <v>27864</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -7755,13 +7851,13 @@
         <v>47966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -7770,13 +7866,13 @@
         <v>75830</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,13 +7887,13 @@
         <v>28214</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>540</v>
+        <v>271</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -7806,13 +7902,13 @@
         <v>54748</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
@@ -7821,10 +7917,10 @@
         <v>82962</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>242</v>
@@ -7895,13 +7991,13 @@
         <v>184478</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -7910,13 +8006,13 @@
         <v>170923</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="M20" s="7">
         <v>362</v>
@@ -7925,13 +8021,13 @@
         <v>355401</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,13 +8042,13 @@
         <v>23012</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="H21" s="7">
         <v>38</v>
@@ -7961,13 +8057,13 @@
         <v>39900</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="M21" s="7">
         <v>62</v>
@@ -7976,13 +8072,13 @@
         <v>62912</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7997,13 +8093,13 @@
         <v>3731</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -8012,13 +8108,13 @@
         <v>7763</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -8027,13 +8123,13 @@
         <v>11495</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,13 +8197,13 @@
         <v>209315</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="H24" s="7">
         <v>190</v>
@@ -8116,13 +8212,13 @@
         <v>190531</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="M24" s="7">
         <v>394</v>
@@ -8131,13 +8227,13 @@
         <v>399846</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,13 +8248,13 @@
         <v>26423</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -8167,13 +8263,13 @@
         <v>49901</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -8182,13 +8278,13 @@
         <v>76324</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8299,13 @@
         <v>27385</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
@@ -8218,13 +8314,13 @@
         <v>32682</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>55</v>
@@ -8233,13 +8329,13 @@
         <v>60067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,13 +8403,13 @@
         <v>549900</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="H28" s="7">
         <v>506</v>
@@ -8322,10 +8418,10 @@
         <v>531153</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>235</v>
@@ -8337,13 +8433,13 @@
         <v>1081054</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +8454,13 @@
         <v>79277</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="H29" s="7">
         <v>84</v>
@@ -8373,13 +8469,13 @@
         <v>93793</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="M29" s="7">
         <v>155</v>
@@ -8388,13 +8484,13 @@
         <v>173070</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,13 +8505,13 @@
         <v>27381</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="H30" s="7">
         <v>56</v>
@@ -8424,13 +8520,13 @@
         <v>66348</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="M30" s="7">
         <v>83</v>
@@ -8439,13 +8535,13 @@
         <v>93728</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8513,13 +8609,13 @@
         <v>683391</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="H32" s="7">
         <v>621</v>
@@ -8528,13 +8624,13 @@
         <v>664690</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="M32" s="7">
         <v>1275</v>
@@ -8543,10 +8639,10 @@
         <v>1348081</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>130</v>
@@ -8564,13 +8660,13 @@
         <v>77032</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="H33" s="7">
         <v>98</v>
@@ -8579,13 +8675,13 @@
         <v>116971</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="M33" s="7">
         <v>175</v>
@@ -8594,10 +8690,10 @@
         <v>194004</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>628</v>
+        <v>332</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>166</v>
@@ -8615,13 +8711,13 @@
         <v>18159</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="H34" s="7">
         <v>36</v>
@@ -8633,10 +8729,10 @@
         <v>39</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="M34" s="7">
         <v>55</v>
@@ -8645,13 +8741,13 @@
         <v>62665</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8719,13 +8815,13 @@
         <v>2902369</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="H36" s="7">
         <v>2638</v>
@@ -8734,13 +8830,13 @@
         <v>2735870</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="M36" s="7">
         <v>5381</v>
@@ -8749,13 +8845,13 @@
         <v>5638240</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8770,13 +8866,13 @@
         <v>338515</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="H37" s="7">
         <v>435</v>
@@ -8785,13 +8881,13 @@
         <v>493143</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="M37" s="7">
         <v>768</v>
@@ -8800,13 +8896,13 @@
         <v>831659</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8821,10 +8917,10 @@
         <v>153465</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>123</v>
@@ -8836,13 +8932,13 @@
         <v>315528</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="M38" s="7">
         <v>420</v>
@@ -8851,13 +8947,13 @@
         <v>468994</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8937,7 +9033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A108DD3-10A4-40EC-AD5A-75107DD17F76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B68F6FA-8F30-4377-B516-AD2C5431384F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8954,7 +9050,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9058,46 +9154,46 @@
         <v>274</v>
       </c>
       <c r="D4" s="7">
-        <v>219330</v>
+        <v>266223</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>679</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="H4" s="7">
         <v>422</v>
       </c>
       <c r="I4" s="7">
-        <v>216450</v>
+        <v>233401</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>620</v>
+        <v>683</v>
       </c>
       <c r="M4" s="7">
         <v>696</v>
       </c>
       <c r="N4" s="7">
-        <v>435779</v>
+        <v>499623</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9109,46 +9205,46 @@
         <v>48</v>
       </c>
       <c r="D5" s="7">
-        <v>34944</v>
+        <v>38715</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>670</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="H5" s="7">
         <v>92</v>
       </c>
       <c r="I5" s="7">
-        <v>43073</v>
+        <v>44219</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>56</v>
+        <v>691</v>
       </c>
       <c r="M5" s="7">
         <v>140</v>
       </c>
       <c r="N5" s="7">
-        <v>78017</v>
+        <v>82934</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9160,46 +9256,46 @@
         <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>6024</v>
+        <v>6505</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>677</v>
+        <v>38</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>116</v>
+        <v>695</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>678</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>11880</v>
+        <v>12015</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>680</v>
+        <v>513</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
       </c>
       <c r="N6" s="7">
-        <v>17904</v>
+        <v>18519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9211,7 +9307,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -9226,7 +9322,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -9241,7 +9337,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -9264,46 +9360,46 @@
         <v>291</v>
       </c>
       <c r="D8" s="7">
-        <v>418805</v>
+        <v>423235</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="H8" s="7">
         <v>508</v>
       </c>
       <c r="I8" s="7">
-        <v>415996</v>
+        <v>388019</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>306</v>
+        <v>704</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>400</v>
+        <v>547</v>
       </c>
       <c r="M8" s="7">
         <v>799</v>
       </c>
       <c r="N8" s="7">
-        <v>834802</v>
+        <v>811254</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>689</v>
+        <v>549</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>281</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9315,46 +9411,46 @@
         <v>73</v>
       </c>
       <c r="D9" s="7">
-        <v>81353</v>
+        <v>77078</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>318</v>
+        <v>708</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="H9" s="7">
         <v>138</v>
       </c>
       <c r="I9" s="7">
-        <v>89787</v>
+        <v>82896</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>286</v>
+        <v>711</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>692</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="M9" s="7">
         <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>171141</v>
+        <v>159974</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>27</v>
+        <v>714</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>695</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9366,46 +9462,46 @@
         <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>19139</v>
+        <v>18077</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>484</v>
+        <v>389</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
       </c>
       <c r="I10" s="7">
-        <v>48783</v>
+        <v>44055</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>697</v>
+        <v>610</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
       </c>
       <c r="N10" s="7">
-        <v>67922</v>
+        <v>62131</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>223</v>
+        <v>719</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>701</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9417,7 +9513,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -9432,7 +9528,7 @@
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -9447,7 +9543,7 @@
         <v>1099</v>
       </c>
       <c r="N11" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -9470,46 +9566,46 @@
         <v>294</v>
       </c>
       <c r="D12" s="7">
-        <v>274389</v>
+        <v>270691</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>703</v>
+        <v>723</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>704</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>407</v>
       </c>
       <c r="I12" s="7">
-        <v>299681</v>
+        <v>281568</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="M12" s="7">
         <v>701</v>
       </c>
       <c r="N12" s="7">
-        <v>574069</v>
+        <v>552259</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>599</v>
+        <v>724</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>709</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9521,46 +9617,46 @@
         <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>21118</v>
+        <v>20178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>728</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>653</v>
+        <v>729</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>710</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
       </c>
       <c r="I13" s="7">
-        <v>42989</v>
+        <v>39418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>713</v>
+        <v>333</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
       </c>
       <c r="N13" s="7">
-        <v>64106</v>
+        <v>59596</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>715</v>
+        <v>464</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>496</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9572,46 +9668,46 @@
         <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>26734</v>
+        <v>25181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>716</v>
+        <v>412</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>717</v>
+        <v>36</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>734</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
       </c>
       <c r="I14" s="7">
-        <v>29985</v>
+        <v>27568</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
       </c>
       <c r="N14" s="7">
-        <v>56718</v>
+        <v>52749</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>720</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>721</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9623,7 +9719,7 @@
         <v>360</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -9638,7 +9734,7 @@
         <v>535</v>
       </c>
       <c r="I15" s="7">
-        <v>372654</v>
+        <v>348554</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -9653,7 +9749,7 @@
         <v>895</v>
       </c>
       <c r="N15" s="7">
-        <v>694894</v>
+        <v>664604</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -9676,46 +9772,46 @@
         <v>222</v>
       </c>
       <c r="D16" s="7">
-        <v>261860</v>
+        <v>255277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>642</v>
+        <v>737</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="H16" s="7">
         <v>415</v>
       </c>
       <c r="I16" s="7">
-        <v>340020</v>
+        <v>393169</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>330</v>
+        <v>741</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>17</v>
+        <v>742</v>
       </c>
       <c r="M16" s="7">
         <v>637</v>
       </c>
       <c r="N16" s="7">
-        <v>601881</v>
+        <v>648445</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>726</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>43</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9727,46 +9823,46 @@
         <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>33015</v>
+        <v>31206</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
       </c>
       <c r="I17" s="7">
-        <v>58331</v>
+        <v>54566</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="M17" s="7">
         <v>162</v>
       </c>
       <c r="N17" s="7">
-        <v>91346</v>
+        <v>85772</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>511</v>
+        <v>672</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>734</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9778,46 +9874,46 @@
         <v>29</v>
       </c>
       <c r="D18" s="7">
-        <v>27365</v>
+        <v>26073</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="H18" s="7">
         <v>63</v>
       </c>
       <c r="I18" s="7">
-        <v>30204</v>
+        <v>27984</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>214</v>
+        <v>755</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="M18" s="7">
         <v>92</v>
       </c>
       <c r="N18" s="7">
-        <v>57569</v>
+        <v>54057</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9829,7 +9925,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -9844,7 +9940,7 @@
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -9859,7 +9955,7 @@
         <v>891</v>
       </c>
       <c r="N19" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -9882,46 +9978,46 @@
         <v>238</v>
       </c>
       <c r="D20" s="7">
-        <v>172427</v>
+        <v>156730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="H20" s="7">
         <v>345</v>
       </c>
       <c r="I20" s="7">
-        <v>195901</v>
+        <v>201160</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>764</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M20" s="7">
         <v>583</v>
       </c>
       <c r="N20" s="7">
-        <v>368329</v>
+        <v>357890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>767</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>748</v>
+        <v>566</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9933,46 +10029,46 @@
         <v>31</v>
       </c>
       <c r="D21" s="7">
-        <v>18308</v>
+        <v>16573</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>712</v>
+        <v>188</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="H21" s="7">
         <v>118</v>
       </c>
       <c r="I21" s="7">
-        <v>48583</v>
+        <v>44039</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>338</v>
+        <v>772</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>753</v>
+        <v>773</v>
       </c>
       <c r="M21" s="7">
         <v>149</v>
       </c>
       <c r="N21" s="7">
-        <v>66891</v>
+        <v>60613</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>515</v>
+        <v>774</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>383</v>
+        <v>776</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9984,46 +10080,46 @@
         <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>6012</v>
+        <v>5438</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>779</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
       </c>
       <c r="I22" s="7">
-        <v>14424</v>
+        <v>13035</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>757</v>
+        <v>780</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>758</v>
+        <v>781</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>759</v>
+        <v>782</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
       </c>
       <c r="N22" s="7">
-        <v>20436</v>
+        <v>18473</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>570</v>
+        <v>783</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10035,7 +10131,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -10050,7 +10146,7 @@
         <v>494</v>
       </c>
       <c r="I23" s="7">
-        <v>258908</v>
+        <v>258234</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -10065,7 +10161,7 @@
         <v>773</v>
       </c>
       <c r="N23" s="7">
-        <v>455656</v>
+        <v>436976</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -10088,46 +10184,46 @@
         <v>305</v>
       </c>
       <c r="D24" s="7">
-        <v>241391</v>
+        <v>235515</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="H24" s="7">
         <v>334</v>
       </c>
       <c r="I24" s="7">
-        <v>221634</v>
+        <v>206753</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>595</v>
+        <v>789</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>765</v>
+        <v>790</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>766</v>
+        <v>791</v>
       </c>
       <c r="M24" s="7">
         <v>639</v>
       </c>
       <c r="N24" s="7">
-        <v>463026</v>
+        <v>442269</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>573</v>
+        <v>792</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10139,46 +10235,46 @@
         <v>35</v>
       </c>
       <c r="D25" s="7">
-        <v>20112</v>
+        <v>19162</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>795</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>769</v>
+        <v>438</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>393</v>
+        <v>796</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
       </c>
       <c r="I25" s="7">
-        <v>27444</v>
+        <v>25526</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>770</v>
+        <v>797</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>771</v>
+        <v>798</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>772</v>
+        <v>799</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
       </c>
       <c r="N25" s="7">
-        <v>47556</v>
+        <v>44688</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>719</v>
+        <v>801</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10190,46 +10286,46 @@
         <v>31</v>
       </c>
       <c r="D26" s="7">
-        <v>15720</v>
+        <v>14958</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>736</v>
+        <v>802</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>774</v>
+        <v>803</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>775</v>
+        <v>804</v>
       </c>
       <c r="H26" s="7">
         <v>65</v>
       </c>
       <c r="I26" s="7">
-        <v>26543</v>
+        <v>24777</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>805</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>370</v>
+        <v>806</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="M26" s="7">
         <v>96</v>
       </c>
       <c r="N26" s="7">
-        <v>42263</v>
+        <v>39735</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>777</v>
+        <v>806</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>761</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>778</v>
+        <v>808</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10241,7 +10337,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -10256,7 +10352,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -10271,7 +10367,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -10294,46 +10390,46 @@
         <v>481</v>
       </c>
       <c r="D28" s="7">
-        <v>520587</v>
+        <v>521470</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>779</v>
+        <v>809</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>781</v>
+        <v>811</v>
       </c>
       <c r="H28" s="7">
         <v>684</v>
       </c>
       <c r="I28" s="7">
-        <v>626993</v>
+        <v>687026</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>782</v>
+        <v>211</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>783</v>
+        <v>812</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>784</v>
+        <v>813</v>
       </c>
       <c r="M28" s="7">
         <v>1165</v>
       </c>
       <c r="N28" s="7">
-        <v>1147580</v>
+        <v>1208496</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>785</v>
+        <v>468</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>786</v>
+        <v>496</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>787</v>
+        <v>814</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10345,46 +10441,46 @@
         <v>85</v>
       </c>
       <c r="D29" s="7">
-        <v>76398</v>
+        <v>73525</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="H29" s="7">
         <v>163</v>
       </c>
       <c r="I29" s="7">
-        <v>106468</v>
+        <v>97539</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>793</v>
+        <v>820</v>
       </c>
       <c r="M29" s="7">
         <v>248</v>
       </c>
       <c r="N29" s="7">
-        <v>182866</v>
+        <v>171063</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>794</v>
+        <v>821</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>721</v>
+        <v>822</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>795</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10396,46 +10492,46 @@
         <v>32</v>
       </c>
       <c r="D30" s="7">
-        <v>29951</v>
+        <v>28537</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>796</v>
+        <v>823</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>797</v>
+        <v>824</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>798</v>
+        <v>825</v>
       </c>
       <c r="H30" s="7">
         <v>113</v>
       </c>
       <c r="I30" s="7">
-        <v>70742</v>
+        <v>64700</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>697</v>
+        <v>826</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>366</v>
+        <v>828</v>
       </c>
       <c r="M30" s="7">
         <v>145</v>
       </c>
       <c r="N30" s="7">
-        <v>100693</v>
+        <v>93237</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>800</v>
+        <v>829</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>801</v>
+        <v>830</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>802</v>
+        <v>831</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10447,7 +10543,7 @@
         <v>598</v>
       </c>
       <c r="D31" s="7">
-        <v>626936</v>
+        <v>623532</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -10462,7 +10558,7 @@
         <v>960</v>
       </c>
       <c r="I31" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -10477,7 +10573,7 @@
         <v>1558</v>
       </c>
       <c r="N31" s="7">
-        <v>1431139</v>
+        <v>1472797</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -10500,46 +10596,46 @@
         <v>642</v>
       </c>
       <c r="D32" s="7">
-        <v>704021</v>
+        <v>595268</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>803</v>
+        <v>832</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>804</v>
+        <v>833</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>805</v>
+        <v>834</v>
       </c>
       <c r="H32" s="7">
         <v>774</v>
       </c>
       <c r="I32" s="7">
-        <v>660625</v>
+        <v>545664</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>806</v>
+        <v>835</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>807</v>
+        <v>836</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>808</v>
+        <v>837</v>
       </c>
       <c r="M32" s="7">
         <v>1416</v>
       </c>
       <c r="N32" s="7">
-        <v>1364647</v>
+        <v>1140933</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>809</v>
+        <v>838</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>810</v>
+        <v>839</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>811</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10551,46 +10647,46 @@
         <v>84</v>
       </c>
       <c r="D33" s="7">
-        <v>124496</v>
+        <v>307183</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>812</v>
+        <v>840</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>813</v>
+        <v>841</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>814</v>
+        <v>842</v>
       </c>
       <c r="H33" s="7">
         <v>177</v>
       </c>
       <c r="I33" s="7">
-        <v>132648</v>
+        <v>109440</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>815</v>
+        <v>843</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>844</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>816</v>
+        <v>276</v>
       </c>
       <c r="M33" s="7">
         <v>261</v>
       </c>
       <c r="N33" s="7">
-        <v>257144</v>
+        <v>416623</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>817</v>
+        <v>845</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>818</v>
+        <v>846</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10602,46 +10698,46 @@
         <v>36</v>
       </c>
       <c r="D34" s="7">
-        <v>30910</v>
+        <v>26269</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>820</v>
+        <v>848</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>822</v>
+        <v>850</v>
       </c>
       <c r="H34" s="7">
         <v>111</v>
       </c>
       <c r="I34" s="7">
-        <v>75161</v>
+        <v>62628</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>545</v>
+        <v>851</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>823</v>
+        <v>852</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>824</v>
+        <v>504</v>
       </c>
       <c r="M34" s="7">
         <v>147</v>
       </c>
       <c r="N34" s="7">
-        <v>106071</v>
+        <v>88897</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>659</v>
+        <v>853</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>825</v>
+        <v>409</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>344</v>
+        <v>854</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10653,7 +10749,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -10668,7 +10764,7 @@
         <v>1062</v>
       </c>
       <c r="I35" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -10683,7 +10779,7 @@
         <v>1824</v>
       </c>
       <c r="N35" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -10706,46 +10802,46 @@
         <v>2747</v>
       </c>
       <c r="D36" s="7">
-        <v>2812811</v>
+        <v>2724411</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>826</v>
+        <v>855</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>827</v>
+        <v>856</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>828</v>
+        <v>494</v>
       </c>
       <c r="H36" s="7">
         <v>3889</v>
       </c>
       <c r="I36" s="7">
-        <v>2977301</v>
+        <v>2936759</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>829</v>
+        <v>857</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>664</v>
+        <v>859</v>
       </c>
       <c r="M36" s="7">
         <v>6636</v>
       </c>
       <c r="N36" s="7">
-        <v>5790112</v>
+        <v>5661170</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>599</v>
+        <v>860</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>831</v>
+        <v>861</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>832</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10757,46 +10853,46 @@
         <v>425</v>
       </c>
       <c r="D37" s="7">
-        <v>409744</v>
+        <v>583621</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>86</v>
+        <v>644</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>833</v>
+        <v>428</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>834</v>
+        <v>862</v>
       </c>
       <c r="H37" s="7">
         <v>944</v>
       </c>
       <c r="I37" s="7">
-        <v>549323</v>
+        <v>497642</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>835</v>
+        <v>574</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>836</v>
+        <v>863</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>837</v>
+        <v>864</v>
       </c>
       <c r="M37" s="7">
         <v>1369</v>
       </c>
       <c r="N37" s="7">
-        <v>959067</v>
+        <v>1081262</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>838</v>
+        <v>693</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>839</v>
+        <v>865</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10808,46 +10904,46 @@
         <v>203</v>
       </c>
       <c r="D38" s="7">
-        <v>161855</v>
+        <v>151039</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>796</v>
+        <v>246</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>840</v>
+        <v>866</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>841</v>
+        <v>146</v>
       </c>
       <c r="H38" s="7">
         <v>532</v>
       </c>
       <c r="I38" s="7">
-        <v>307723</v>
+        <v>276760</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>842</v>
+        <v>464</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
       <c r="M38" s="7">
         <v>735</v>
       </c>
       <c r="N38" s="7">
-        <v>469578</v>
+        <v>427799</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>442</v>
+        <v>870</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>846</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10859,7 +10955,7 @@
         <v>3375</v>
       </c>
       <c r="D39" s="7">
-        <v>3384410</v>
+        <v>3459070</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -10874,7 +10970,7 @@
         <v>5365</v>
       </c>
       <c r="I39" s="7">
-        <v>3834346</v>
+        <v>3711161</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -10889,7 +10985,7 @@
         <v>8740</v>
       </c>
       <c r="N39" s="7">
-        <v>7218756</v>
+        <v>7170231</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
